--- a/fileService/test/test.xlsx
+++ b/fileService/test/test.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shengte/git/tensorflowjs/fileService/test/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3C99D54-81EA-A142-B867-07A212A83453}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74743380-69C2-D24C-9E3B-ACAF836B1C19}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="320" yWindow="500" windowWidth="24940" windowHeight="14400" xr2:uid="{EC6674D8-5098-904C-A64F-4C8D76DE99E1}"/>
   </bookViews>
@@ -25,32 +25,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>get</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>{"start":"2022-01-04 09:10:00","end":"2022-01-08 09:10:00"}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"start":"2022-01-05 09:10:00","end":"2022-01-08 09:10:01"}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"start":"2022-01-06 09:10:00","end":"2022-01-08 09:10:02"}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"start":"2022-01-13 08:00:00","end":"2022-01-17 09:10:03"}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"start":"2022-01-13 08:00:00","end":"2022-01-17 10:10:04"}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>序号</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -75,7 +55,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>{"start":"2022-01-23 04:10:00","end":"2022-01-26 11:49:05"}</t>
+    <t>{"start":"2022-01-25 10:00:00","end":"2022-01-27 17:20:05"}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -468,10 +448,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1411D073-C4B3-924A-81AF-311FA2CE969E}">
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -483,111 +463,42 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="2" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>0</v>
       </c>
       <c r="D2" t="s">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="E2">
-        <v>3.8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3" s="1"/>
-      <c r="C3" s="3"/>
-      <c r="D3" t="s">
-        <v>2</v>
-      </c>
-      <c r="E3">
-        <v>2.8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4" s="1"/>
-      <c r="C4" s="3"/>
-      <c r="D4" t="s">
-        <v>3</v>
-      </c>
-      <c r="E4">
-        <v>1.8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5" s="1"/>
-      <c r="C5" s="3"/>
-      <c r="D5" t="s">
-        <v>4</v>
-      </c>
-      <c r="E5">
-        <v>2.2000000000000002</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6">
-        <v>5</v>
-      </c>
-      <c r="B6" s="1"/>
-      <c r="C6" s="3"/>
-      <c r="D6" t="s">
-        <v>5</v>
-      </c>
-      <c r="E6">
-        <v>2.2999999999999998</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="A7">
-        <v>6</v>
-      </c>
-      <c r="B7" s="1"/>
-      <c r="C7" s="3"/>
-      <c r="D7" t="s">
-        <v>12</v>
-      </c>
-      <c r="E7">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="B2:B7"/>
-    <mergeCell ref="C2:C7"/>
-  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" xr:uid="{9E62250E-67E5-3C48-9CEF-52D05D3BA250}"/>
+    <hyperlink ref="B2" r:id="rId1" xr:uid="{C43D76F4-8F66-EB44-A9C9-55F163D20828}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
